--- a/Data/EC/NIT-9016652940.xlsx
+++ b/Data/EC/NIT-9016652940.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352ABBFC-0063-4DCA-A5BF-A7BD2A2FDAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{881E7FA5-50CB-4AC2-A658-1B093037C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2985018-9195-43FF-875D-369222D21C84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ED7BEB8-F8F7-4EBF-8973-5FCEB2B9B750}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,73 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9148198</t>
+  </si>
+  <si>
+    <t>REYNALDO RIOS JIMENEZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>73205228</t>
+  </si>
+  <si>
+    <t>YEISSON DURANGO ACOSTA</t>
+  </si>
+  <si>
+    <t>8981076</t>
+  </si>
+  <si>
+    <t>DAMIAN HERRERA GOMEZ</t>
+  </si>
+  <si>
+    <t>1129523324</t>
+  </si>
+  <si>
+    <t>MAICOL NAVARRO VILLARREAL</t>
+  </si>
+  <si>
+    <t>1063482755</t>
+  </si>
+  <si>
+    <t>CARLOS ALFARO MARTINEZ</t>
+  </si>
+  <si>
     <t>73236916</t>
   </si>
   <si>
     <t>JAVIER ENRIQUE NAVARRO VILLARREAL</t>
   </si>
   <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>73205228</t>
-  </si>
-  <si>
-    <t>YEISSON DURANGO ACOSTA</t>
-  </si>
-  <si>
-    <t>1063482755</t>
-  </si>
-  <si>
-    <t>CARLOS ALFARO MARTINEZ</t>
-  </si>
-  <si>
     <t>1047414922</t>
   </si>
   <si>
     <t>DAYSON JOSE CASTRO BANQUEZ</t>
   </si>
   <si>
+    <t>72224239</t>
+  </si>
+  <si>
+    <t>LUIS MANUEL PAYARES VARGAS</t>
+  </si>
+  <si>
     <t>73104403</t>
   </si>
   <si>
     <t>MIGUEL DEL CRISTO JUNCO BATISTA</t>
-  </si>
-  <si>
-    <t>8981076</t>
-  </si>
-  <si>
-    <t>DAMIAN HERRERA GOMEZ</t>
-  </si>
-  <si>
-    <t>1129523324</t>
-  </si>
-  <si>
-    <t>MAICOL NAVARRO VILLARREAL</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>72224239</t>
-  </si>
-  <si>
-    <t>LUIS MANUEL PAYARES VARGAS</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2AE409-F1C8-FC95-B246-C9E22EB38DD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7352B4-A445-E913-3038-C3E7E236D4D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C794581-F2B5-43D1-9EF2-BA5D06AEA684}">
-  <dimension ref="B2:J75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3301C2-ADAC-41DF-A2F2-D1AD2B4ABC97}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -921,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2767522</v>
+        <v>2979949</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,14 +1020,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1051,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1088,19 +1094,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>2500000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1111,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1134,13 +1140,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1157,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1180,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1203,13 +1209,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1226,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>73333</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1249,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1278,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>100000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>100000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1318,19 +1324,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>100000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1341,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>100000</v>
       </c>
       <c r="G28" s="18">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G29" s="18">
         <v>1160000</v>
@@ -1387,19 +1393,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>2500000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1410,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1433,13 +1439,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1456,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1479,13 +1485,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1508,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1525,16 +1531,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G36" s="18">
         <v>1160000</v>
@@ -1548,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1571,13 +1577,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1594,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1617,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>2500000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1646,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1663,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1686,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1709,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1732,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1755,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1778,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1801,19 +1807,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>2500000</v>
+        <v>900000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1824,19 +1830,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1847,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1870,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1893,19 +1899,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1916,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1939,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1962,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1985,16 +1991,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G56" s="18">
         <v>1160000</v>
@@ -2008,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2031,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F58" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>2500000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2054,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2077,13 +2083,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2100,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2123,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
-        <v>73333</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>2500000</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2146,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
         <v>34027</v>
@@ -2169,16 +2175,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
         <v>1160000</v>
@@ -2192,16 +2198,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
         <v>1160000</v>
@@ -2215,16 +2221,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
         <v>1160000</v>
@@ -2238,16 +2244,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
         <v>1160000</v>
@@ -2261,16 +2267,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G68" s="18">
         <v>1160000</v>
@@ -2280,56 +2286,194 @@
       <c r="J68" s="20"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="22" t="s">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="18">
+        <v>34027</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="F74" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="24">
-        <v>34027</v>
-      </c>
-      <c r="G69" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="H74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="H75" s="1" t="s">
+      <c r="F75" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016652940.xlsx
+++ b/Data/EC/NIT-9016652940.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881E7FA5-50CB-4AC2-A658-1B093037C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92B5CC8-753C-44F3-A4F7-5123C26D6E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ED7BEB8-F8F7-4EBF-8973-5FCEB2B9B750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ADACAB3D-65A6-431D-91A7-2B95C24BA1FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,79 +65,67 @@
     <t>CC</t>
   </si>
   <si>
-    <t>9148198</t>
-  </si>
-  <si>
-    <t>REYNALDO RIOS JIMENEZ</t>
+    <t>8981076</t>
+  </si>
+  <si>
+    <t>DAMIAN HERRERA GOMEZ</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1063482755</t>
+  </si>
+  <si>
+    <t>CARLOS ALFARO MARTINEZ</t>
+  </si>
+  <si>
+    <t>73236916</t>
+  </si>
+  <si>
+    <t>JAVIER ENRIQUE NAVARRO VILLARREAL</t>
+  </si>
+  <si>
+    <t>1047414922</t>
+  </si>
+  <si>
+    <t>DAYSON JOSE CASTRO BANQUEZ</t>
+  </si>
+  <si>
+    <t>73104403</t>
+  </si>
+  <si>
+    <t>MIGUEL DEL CRISTO JUNCO BATISTA</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1129523324</t>
+  </si>
+  <si>
+    <t>MAICOL NAVARRO VILLARREAL</t>
+  </si>
+  <si>
+    <t>72224239</t>
+  </si>
+  <si>
+    <t>LUIS MANUEL PAYARES VARGAS</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
   </si>
   <si>
     <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>73205228</t>
-  </si>
-  <si>
-    <t>YEISSON DURANGO ACOSTA</t>
-  </si>
-  <si>
-    <t>8981076</t>
-  </si>
-  <si>
-    <t>DAMIAN HERRERA GOMEZ</t>
-  </si>
-  <si>
-    <t>1129523324</t>
-  </si>
-  <si>
-    <t>MAICOL NAVARRO VILLARREAL</t>
-  </si>
-  <si>
-    <t>1063482755</t>
-  </si>
-  <si>
-    <t>CARLOS ALFARO MARTINEZ</t>
-  </si>
-  <si>
-    <t>73236916</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE NAVARRO VILLARREAL</t>
-  </si>
-  <si>
-    <t>1047414922</t>
-  </si>
-  <si>
-    <t>DAYSON JOSE CASTRO BANQUEZ</t>
-  </si>
-  <si>
-    <t>72224239</t>
-  </si>
-  <si>
-    <t>LUIS MANUEL PAYARES VARGAS</t>
-  </si>
-  <si>
-    <t>73104403</t>
-  </si>
-  <si>
-    <t>MIGUEL DEL CRISTO JUNCO BATISTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7352B4-A445-E913-3038-C3E7E236D4D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAB3659-5E5D-B8D6-91E5-E1146D5F2AF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3301C2-ADAC-41DF-A2F2-D1AD2B4ABC97}">
-  <dimension ref="B2:J81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C0DD4F-A748-4966-A578-1C406BE62405}">
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2979949</v>
+        <v>2094189</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,14 +1008,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1057,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1094,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1117,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1140,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1163,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1192,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1209,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1232,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>73333</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1255,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1278,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1301,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1330,13 +1318,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1347,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>100000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1370,16 +1358,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
         <v>1160000</v>
@@ -1393,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1416,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1439,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1462,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1485,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1508,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1531,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
         <v>1160000</v>
@@ -1554,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1577,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1600,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1623,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1646,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1669,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1692,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1715,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1738,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1761,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1784,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1807,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>900000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1830,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1853,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1876,19 +1864,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1899,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1922,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1945,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1968,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1991,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F56" s="18">
         <v>34027</v>
@@ -2014,16 +2002,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G57" s="18">
         <v>1160000</v>
@@ -2037,16 +2025,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G58" s="18">
         <v>1160000</v>
@@ -2060,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G59" s="18">
         <v>1160000</v>
@@ -2083,16 +2071,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G60" s="18">
         <v>1160000</v>
@@ -2106,16 +2094,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F61" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G61" s="18">
         <v>1160000</v>
@@ -2125,355 +2113,56 @@
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="17" t="s">
+      <c r="B62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="18">
+      <c r="F62" s="24">
         <v>34027</v>
       </c>
-      <c r="G63" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="G62" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="B67" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="H67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="18">
-        <v>34027</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G75" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="H80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="H81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="B68" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
